--- a/tests/testdata/inputfiles/testdata_20200925-3.xlsx
+++ b/tests/testdata/inputfiles/testdata_20200925-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GaussianPlume\tests\testdata\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCED43B-042E-469F-BC06-B9009D204BFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9085D-DBBD-4B9B-9343-83F7087C1FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{443E098A-C250-40DD-B657-123E6A67EA17}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>NO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>latR</t>
   </si>
@@ -92,13 +89,19 @@
     <t>device_name</t>
   </si>
   <si>
-    <t>C:\Python\GaussianPlume\tests\testdata\inputfiles\testdata_20200925-3.xlsx</t>
+    <t>C:\Python\GaussianPlume\tests\testdata\inputfiles\testdata_20200925-3_data.csv</t>
   </si>
   <si>
     <t>filename_measurement_data</t>
   </si>
   <si>
     <t>dispersion_mode</t>
+  </si>
+  <si>
+    <t>xtc</t>
+  </si>
+  <si>
+    <t>tc_minimum</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DE1653-3265-451B-A179-F3CB1CDCBC21}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>51.5852</v>
@@ -496,7 +499,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>5.6014999999999997</v>
@@ -504,19 +507,30 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -526,10 +540,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A6019B-2345-46D1-97E5-A77C92B1D990}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,33 +551,36 @@
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -580,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
         <v>-540</v>
@@ -588,8 +605,11 @@
       <c r="H2" s="1">
         <v>-276</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -606,7 +626,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
         <v>-505</v>
@@ -614,8 +634,11 @@
       <c r="H3" s="1">
         <v>-291</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -632,7 +655,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
         <v>-520</v>
@@ -640,8 +663,11 @@
       <c r="H4" s="1">
         <v>-251</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -658,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1">
         <v>-500</v>
@@ -666,8 +692,11 @@
       <c r="H5" s="1">
         <v>-226</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -684,7 +713,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
         <v>-480</v>
@@ -692,8 +721,11 @@
       <c r="H6" s="1">
         <v>-196</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -710,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1">
         <v>-485</v>
@@ -718,8 +750,11 @@
       <c r="H7" s="1">
         <v>-251</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -736,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <v>-460</v>
@@ -744,8 +779,11 @@
       <c r="H8" s="1">
         <v>-226</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -762,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
         <v>-485</v>
@@ -770,8 +808,11 @@
       <c r="H9" s="1">
         <v>-281</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -788,13 +829,16 @@
         <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>-397</v>
       </c>
       <c r="H10" s="1">
         <v>-270</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -815,16 +859,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">

--- a/tests/testdata/inputfiles/testdata_20200925-3.xlsx
+++ b/tests/testdata/inputfiles/testdata_20200925-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GaussianPlume\tests\testdata\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F9085D-DBBD-4B9B-9343-83F7087C1FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CB9C3-8E94-47FE-8CC5-B0E2EB13706E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{443E098A-C250-40DD-B657-123E6A67EA17}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{443E098A-C250-40DD-B657-123E6A67EA17}"/>
   </bookViews>
   <sheets>
     <sheet name="static parameters" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>latR</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>dispersion_mode</t>
-  </si>
-  <si>
-    <t>xtc</t>
   </si>
   <si>
     <t>tc_minimum</t>
@@ -479,8 +476,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0.05</v>
@@ -542,8 +539,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,9 +573,6 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -588,7 +582,7 @@
         <v>0.125</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>0.2</v>
@@ -605,9 +599,7 @@
       <c r="H2" s="1">
         <v>-276</v>
       </c>
-      <c r="I2" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -617,7 +609,7 @@
         <v>0.125</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -634,9 +626,7 @@
       <c r="H3" s="1">
         <v>-291</v>
       </c>
-      <c r="I3" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -646,7 +636,7 @@
         <v>0.125</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>0.2</v>
@@ -663,9 +653,7 @@
       <c r="H4" s="1">
         <v>-251</v>
       </c>
-      <c r="I4" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -675,7 +663,7 @@
         <v>0.125</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>0.2</v>
@@ -692,9 +680,7 @@
       <c r="H5" s="1">
         <v>-226</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -704,7 +690,7 @@
         <v>0.125</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>0.2</v>
@@ -721,9 +707,7 @@
       <c r="H6" s="1">
         <v>-196</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -733,7 +717,7 @@
         <v>0.125</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>0.2</v>
@@ -750,9 +734,7 @@
       <c r="H7" s="1">
         <v>-251</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -762,7 +744,7 @@
         <v>0.125</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>0.2</v>
@@ -779,9 +761,7 @@
       <c r="H8" s="1">
         <v>-226</v>
       </c>
-      <c r="I8" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -791,7 +771,7 @@
         <v>0.125</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>0.2</v>
@@ -808,9 +788,7 @@
       <c r="H9" s="1">
         <v>-281</v>
       </c>
-      <c r="I9" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -837,9 +815,7 @@
       <c r="H10" s="1">
         <v>-270</v>
       </c>
-      <c r="I10" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,6 +832,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/tests/testdata/inputfiles/testdata_20200925-3.xlsx
+++ b/tests/testdata/inputfiles/testdata_20200925-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GaussianPlume\tests\testdata\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gaussianplume\tests\testdata\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CB9C3-8E94-47FE-8CC5-B0E2EB13706E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407C223-7297-4530-A492-CB948AF54E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{443E098A-C250-40DD-B657-123E6A67EA17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{443E098A-C250-40DD-B657-123E6A67EA17}"/>
   </bookViews>
   <sheets>
     <sheet name="static parameters" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>device_name</t>
   </si>
   <si>
-    <t>C:\Python\GaussianPlume\tests\testdata\inputfiles\testdata_20200925-3_data.csv</t>
-  </si>
-  <si>
     <t>filename_measurement_data</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>tc_minimum</t>
+  </si>
+  <si>
+    <t>C:\Projects\gaussianplume\tests\testdata\inputfiles\testdata_20200925-3_data.csv</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -504,7 +504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>0.05</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
